--- a/reports/Locations.xlsx
+++ b/reports/Locations.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
   <si>
-    <t>asasasa</t>
+    <t>locations</t>
   </si>
   <si>
     <t>ID</t>
